--- a/Data/cost_input_sensitivity_analysis.xlsx
+++ b/Data/cost_input_sensitivity_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stoptb-my.sharepoint.com/personal/tusharg_stoptb_org/Documents/Research/costing Nigeria CXR AI/Costing Nigeria Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="552" documentId="8_{2CB193A3-1BD6-EC44-9811-677658E1E00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C217E4-C078-9348-9361-6C4376977A27}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="8_{2CB193A3-1BD6-EC44-9811-677658E1E00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FED40B0-79BB-CA4F-B385-A865A499EE63}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{F90C1CC6-1A5D-6049-89A0-EEDAC6C85C0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F90C1CC6-1A5D-6049-89A0-EEDAC6C85C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <t>Qure</t>
   </si>
   <si>
-    <t>GDF catalog, Mar 2025; Xpert Ultra at USD398.5 for 50 cartridge. Additional US$1.35 per cartridge service and maintenance surcharge</t>
+    <t>GDF catalog, Mar 2025; Xpert Ultra at USD398.5 for 50 cartridge. Additional US$1.35 per cartridge service and maintenance surcharge. Ultra and MTB/RIF were priced same earlier but Ultra replaced MTB/RIF, therefore, we take Ultra price here from the 2025March catalog.</t>
   </si>
 </sst>
 </file>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179AD4B2-F86D-BE47-BE81-11651BD3BCA7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D458BDDE-F200-D84D-817C-ADA30EABBEB8}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="D18" s="13" t="str">
         <f>cost!H17</f>
-        <v>GDF catalog, Mar 2025; Xpert Ultra at USD398.5 for 50 cartridge. Additional US$1.35 per cartridge service and maintenance surcharge</v>
+        <v>GDF catalog, Mar 2025; Xpert Ultra at USD398.5 for 50 cartridge. Additional US$1.35 per cartridge service and maintenance surcharge. Ultra and MTB/RIF were priced same earlier but Ultra replaced MTB/RIF, therefore, we take Ultra price here from the 2025March catalog.</v>
       </c>
       <c r="E18" s="13"/>
     </row>
